--- a/FSiMed x2.1 - Copy/Document.xlsx
+++ b/FSiMed x2.1 - Copy/Document.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Sr No</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Databases</t>
+  </si>
+  <si>
+    <t>github</t>
   </si>
 </sst>
 </file>
@@ -420,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -501,6 +504,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C2"/>

--- a/FSiMed x2.1 - Copy/Document.xlsx
+++ b/FSiMed x2.1 - Copy/Document.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Sr No</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>github</t>
+  </si>
+  <si>
+    <t>now added 1 more thing</t>
   </si>
 </sst>
 </file>
@@ -423,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -509,6 +512,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C2"/>
